--- a/breakdown/breakdown.xlsx
+++ b/breakdown/breakdown.xlsx
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,12 +69,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -111,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -128,10 +122,7 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -145,9 +136,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,16 +445,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -500,10 +488,10 @@
       <c r="D2" s="6">
         <v>0.03530627408</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>0.4448590534</v>
       </c>
       <c r="G2" s="5">
@@ -520,13 +508,13 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>0.09885756742</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>0.1977151348</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>0.4448590534</v>
       </c>
       <c r="G3" s="5">
@@ -537,19 +525,19 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.436650737</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>0.1977151348</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.4448590534</v>
       </c>
       <c r="G4" s="5">
@@ -560,19 +548,19 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.436650737</v>
       </c>
       <c r="C5" s="5">
         <v>0.2330214089</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>0.09885756742</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>0.1977151348</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>0.4448590534</v>
       </c>
       <c r="G5" s="5">

--- a/breakdown/breakdown.xlsx
+++ b/breakdown/breakdown.xlsx
@@ -14,33 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>DRAM</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>xts</t>
-  </si>
-  <si>
-    <t>gcm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>GCM</t>
+  </si>
+  <si>
+    <t>XTS</t>
+  </si>
+  <si>
+    <t>otp</t>
+  </si>
+  <si>
+    <t>counteraccess</t>
   </si>
   <si>
     <t>cxl</t>
   </si>
   <si>
-    <t>ther</t>
-  </si>
-  <si>
     <t>Adaptive</t>
   </si>
   <si>
     <t>IDE + XTS</t>
-  </si>
-  <si>
-    <t>IDE + CTR (ctr$ hit)</t>
   </si>
   <si>
     <t>IDE + CTR (ctr$ miss)</t>
@@ -439,7 +433,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -451,7 +445,6 @@
     <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -471,100 +464,65 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5">
-        <v>0.4377169864</v>
+        <v>0.01090218641</v>
       </c>
       <c r="C2" s="5">
-        <v>0.01856639266</v>
+        <v>0.09427379885</v>
       </c>
       <c r="D2" s="6">
-        <v>0.03530627408</v>
+        <v>0.09811967769</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>0.04360874564</v>
       </c>
       <c r="F2" s="4">
-        <v>0.4448590534</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.06355129334</v>
+        <v>0.01817031068</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>0.4118602405</v>
+        <v>0.654764097</v>
       </c>
       <c r="C3" s="5">
+        <v>0.3270655923</v>
+      </c>
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.09885756742</v>
-      </c>
       <c r="E3" s="4">
-        <v>0.1977151348</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>0.4448590534</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.06355129334</v>
+        <v>0.01817031068</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>0.436650737</v>
+        <v>0.654764097</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>0.1505949739</v>
       </c>
       <c r="E4" s="4">
-        <v>0.1977151348</v>
+        <v>0.4000215328</v>
       </c>
       <c r="F4" s="4">
-        <v>0.4448590534</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.06355129334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.436650737</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.2330214089</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.09885756742</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.1977151348</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.4448590534</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.06355129334</v>
+        <v>0.01817031068</v>
       </c>
     </row>
   </sheetData>
